--- a/normativa/Anexos/L05T02C03/L05T02C03A04.18.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04.18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 2" sheetId="2" r:id="rId1"/>
@@ -410,6 +410,9 @@
     <xf numFmtId="39" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="39" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,9 +434,6 @@
     <xf numFmtId="39" fontId="7" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -742,25 +742,25 @@
   <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="3.7109375" style="1"/>
+    <col min="17" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -790,25 +790,25 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -823,7 +823,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="F3" s="13" t="s">
         <v>11</v>
@@ -848,7 +848,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="G4" s="14" t="s">
@@ -988,7 +988,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
@@ -1018,46 +1018,46 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1069,17 +1069,17 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
       <c r="L11" s="26" t="s">
         <v>25</v>
       </c>
@@ -2017,16 +2017,16 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="G50" s="35" t="s">
+      <c r="G50" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="K50" s="35" t="s">
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="K50" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
     </row>
     <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -2080,7 +2080,7 @@
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
@@ -2094,9 +2094,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
